--- a/cluster1.xlsx
+++ b/cluster1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,15 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>pengeluaran_ewallet_sebulan</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>tingkat_konsumerisme</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cluster</t>
         </is>
@@ -490,21 +495,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26 - 35 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pegawai Swasta</t>
+          <t>Pelajar/Mahasiswa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -514,25 +519,30 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>ShopeeFood</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -541,11 +551,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -555,7 +565,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Wirausaha</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -570,20 +580,25 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -592,16 +607,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26 - 35 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -616,12 +631,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -631,10 +646,15 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Tinggi</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -657,35 +677,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Negeri</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -718,25 +743,30 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -745,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -764,7 +794,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -774,20 +804,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -796,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -805,27 +840,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18 - 25 tahun</t>
+          <t>26 - 35 tahun</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -835,10 +870,15 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -847,11 +887,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -866,30 +906,35 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -898,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -907,17 +952,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18 - 25 tahun</t>
+          <t>26 - 35 tahun</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -927,7 +972,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>LinkAja</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -937,10 +982,15 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -949,11 +999,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -963,7 +1013,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -973,25 +1023,30 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1000,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1009,17 +1064,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18 - 25 tahun</t>
+          <t>26 - 35 tahun</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Wirausaha</t>
+          <t>Pelajar/Mahasiswa</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1029,20 +1084,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1051,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1060,7 +1120,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18 - 25 tahun</t>
+          <t>26 - 35 tahun</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1080,20 +1140,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1102,7 +1167,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1116,7 +1181,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pegawai Negeri</t>
+          <t>Wirausaha</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1126,25 +1191,30 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1153,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18 - 25 tahun</t>
+          <t>26 - 35 tahun</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1172,7 +1242,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1182,20 +1252,25 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1204,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1223,30 +1298,35 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1255,11 +1335,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1279,12 +1359,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1294,10 +1374,15 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1320,7 +1405,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1330,25 +1415,30 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1357,49 +1447,54 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>26 - 35 tahun</t>
+          <t>36 - 45 tahun</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pegawai Swasta</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>LinkAja</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1408,49 +1503,54 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26 - 35 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Rp5.000.000 - Rp10.000.000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Rp0 - Rp2.500.000</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Grab</t>
+          <t>ShopeeFood</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1459,11 +1559,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1473,22 +1573,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pegawai Swasta</t>
+          <t>Pelajar/Mahasiswa</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1498,10 +1598,15 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1524,7 +1629,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1534,12 +1639,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1549,10 +1654,15 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1561,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1575,35 +1685,40 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Rp5.000.000 - Rp10.000.000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1612,7 +1727,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1626,35 +1741,40 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Rp10.000.000 - Rp20.000.000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Rp0 - Rp2.500.000</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1663,7 +1783,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1677,35 +1797,40 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wirausaha</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>ShopeeFood</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1743,20 +1868,25 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1765,11 +1895,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1784,30 +1914,35 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Tinggi</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1816,16 +1951,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26 - 35 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1845,7 +1980,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1855,10 +1990,15 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1867,49 +2007,54 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>36 - 45 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pegawai Swasta</t>
+          <t>Pelajar/Mahasiswa</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>ShopeeFood</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,11 +2063,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1932,7 +2077,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Lainnya</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1942,25 +2087,30 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,7 +2119,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1988,30 +2138,35 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2020,7 +2175,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2029,12 +2184,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>36 - 45 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lainnya</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2044,25 +2199,30 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>ShopeeFood</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Netral</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2071,16 +2231,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>26 - 35 tahun</t>
+          <t>18 - 25 tahun</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2090,30 +2250,35 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,7 +2287,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2131,12 +2296,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>18 - 25 tahun</t>
+          <t>26 - 35 tahun</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pegawai Swasta</t>
+          <t>Pegawai Negeri</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2146,25 +2311,30 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp0 - Rp2.500.000</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ShopeeFood</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2173,11 +2343,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pria</t>
+          <t>Wanita</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2187,35 +2357,40 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pelajar/Mahasiswa</t>
+          <t>Pegawai Swasta</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
+          <t>Rp10.000.000 - Rp20.000.000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rp0 - Rp2.500.000</t>
+          <t>Rp2.500.000 - Rp5.000.000</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,7 +2399,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2233,7 +2408,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>46 - 55 tahun</t>
+          <t>26 - 35 tahun</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2243,30 +2418,35 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
+          <t>Rp5.000.000 - Rp10.000.000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>GoPay</t>
+          <t>Ovo</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Gojek</t>
+          <t>Grab</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2275,16 +2455,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wanita</t>
+          <t>Pria</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>18 - 25 tahun</t>
+          <t>26 - 35 tahun</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2304,7 +2484,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>ShopeePay</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2314,316 +2494,15 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>Rendah</t>
         </is>
       </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>83</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Pria</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>18 - 25 tahun</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Wirausaha</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>GoPay</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Gojek</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>85</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Pria</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>18 - 25 tahun</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Pegawai Swasta</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>GoPay</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Gojek</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>87</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Wanita</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>26 - 35 tahun</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Pegawai Swasta</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>GoPay</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Gojek</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>91</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Wanita</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>36 - 45 tahun</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Pegawai Swasta</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>LinkAja</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Grab</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>99</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Wanita</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>18 - 25 tahun</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Pegawai Negeri</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Rp2.500.000 - Rp5.000.000</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>GoPay</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Grab</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>100</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Wanita</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>36 - 45 tahun</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Pegawai Swasta</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Rp10.000.000 - Rp20.000.000</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Rp5.000.000 - Rp10.000.000</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>GoPay</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Gojek</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
+      <c r="L37" t="n">
         <v>1</v>
       </c>
     </row>
